--- a/data/income_statement/2digits/size/79_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/79_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>79-Travel agency, tour operator and other reservation service and related activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>79-Travel agency, tour operator and other reservation service and related activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,302 +841,342 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>2254225.82474</v>
+        <v>2259910.97333</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>2436451.24438</v>
+        <v>2468800.28244</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>3359922.21217</v>
+        <v>3370213.95248</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3318174.0056</v>
+        <v>3352422.62345</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4369883.84026</v>
+        <v>4367634.97678</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4953987.99242</v>
+        <v>5012852.916560001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>6067611.88209</v>
+        <v>6274383.04474</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4924344.724060001</v>
+        <v>5015247.286189999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>8671697.511499999</v>
+        <v>8711979.82673</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>11855670.71531</v>
+        <v>11679085.07294</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>16943417.81929</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>16834331.59796</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>5669850.736</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1380895.17005</v>
+        <v>1390485.11029</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1560291.94797</v>
+        <v>1578188.1344</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2050717.51098</v>
+        <v>2055677.11801</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1885284.70932</v>
+        <v>1889097.93113</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2719246.52956</v>
+        <v>2733185.4947</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3036949.6997</v>
+        <v>3057912.87153</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3599783.02818</v>
+        <v>3642271.163</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3100641.39646</v>
+        <v>3193978.01757</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>4854024.96822</v>
+        <v>4932502.89469</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>7032050.77226</v>
+        <v>6898270.29021</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>8818948.551760001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>8812170.909629999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>4058193.791</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>845113.6730899999</v>
+        <v>846661.45192</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>839980.7114299999</v>
+        <v>858042.99736</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1253509.55319</v>
+        <v>1251488.47417</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1368457.40815</v>
+        <v>1397835.14943</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1601482.37797</v>
+        <v>1587495.064</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1855428.65976</v>
+        <v>1890338.88287</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2400144.83794</v>
+        <v>2555582.26025</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1736975.11928</v>
+        <v>1739552.6107</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>3647906.04144</v>
+        <v>3614660.94077</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>4497898.308180001</v>
+        <v>4470303.87945</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>7672097.01572</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>7607454.50643</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1431198.792</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>28216.9816</v>
+        <v>22764.41112</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>36178.58498000001</v>
+        <v>32569.15068</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>55695.148</v>
+        <v>63048.36030000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>64431.88813</v>
+        <v>65489.54289</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>49154.93273000001</v>
+        <v>46954.41808</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>61609.63296</v>
+        <v>64601.16216000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>67684.01596999999</v>
+        <v>76529.62149</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>86728.20832000001</v>
+        <v>81716.65792</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>169766.50184</v>
+        <v>164815.99127</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>325721.63487</v>
+        <v>310510.90328</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>452372.25181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>414706.1819</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>180458.153</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>27925.84234</v>
+        <v>27665.02042</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>34161.20499000001</v>
+        <v>34129.88223</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>45077.96329</v>
+        <v>44971.67172999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>41365.51728</v>
+        <v>41437.60268</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>63988.65362</v>
+        <v>65322.71928</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>238797.74456</v>
+        <v>238436.5038</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>78726.10161</v>
+        <v>85748.42883999999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>99642.45802999999</v>
+        <v>102251.86356</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>152820.45248</v>
+        <v>155307.39545</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>295785.11057</v>
+        <v>293719.85315</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>264959.36626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>264456.28628</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>331581.868</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>22900.25237</v>
+        <v>22808.98649</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>28097.72067</v>
+        <v>28142.8458</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>36507.68197999999</v>
+        <v>36563.20156</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>34234.95737</v>
+        <v>34449.10137999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>52030.89778</v>
+        <v>53350.12552</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>218943.30695</v>
+        <v>218605.19908</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>69991.52412</v>
+        <v>69785.93849000002</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>95173.40054999999</v>
+        <v>96846.8823</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>149812.56665</v>
+        <v>149977.79977</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>292141.98137</v>
+        <v>290087.67833</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>259087.14279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>258590.91781</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>324467.008</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>4442.779509999999</v>
+        <v>4382.76181</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>5763.4003</v>
+        <v>5719.5905</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>8455.006529999999</v>
+        <v>8387.20953</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>6873.86544</v>
+        <v>6581.37683</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>11672.19727</v>
+        <v>11686.38016</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>19614.36994</v>
+        <v>19591.23705</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>8134.30704</v>
+        <v>15362.2199</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>3352.40358</v>
+        <v>785.88436</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1324.08925</v>
+        <v>1581.1991</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>960.80006</v>
+        <v>960.77548</v>
       </c>
       <c r="M11" s="48" t="n">
         <v>3009.30108</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>6977.067</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>582.8104599999999</v>
+        <v>473.27212</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>300.08402</v>
+        <v>267.44593</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>115.27478</v>
+        <v>21.26064</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>256.69447</v>
+        <v>407.12447</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>285.55857</v>
+        <v>286.2136</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>240.06767</v>
@@ -1244,223 +1185,253 @@
         <v>600.27045</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1116.6539</v>
+        <v>4619.0969</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1683.79658</v>
+        <v>3748.39658</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>2682.32914</v>
+        <v>2671.39934</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>2862.92239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2856.06739</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>137.793</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>2226299.9824</v>
+        <v>2232245.95291</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2402290.03939</v>
+        <v>2434670.40021</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>3314844.24888</v>
+        <v>3325242.28075</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3276808.48832</v>
+        <v>3310985.02077</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4305895.18664</v>
+        <v>4302312.2575</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4715190.24786</v>
+        <v>4774416.412760001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5988885.780479999</v>
+        <v>6188634.6159</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4824702.26603</v>
+        <v>4912995.422629999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>8518877.05902</v>
+        <v>8556672.43128</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>11559885.60474</v>
+        <v>11385365.21979</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>16678458.45303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16569875.31168</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>5338268.868</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1992015.97066</v>
+        <v>1998852.84928</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>2194690.36493</v>
+        <v>2218311.81435</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>3001590.23523</v>
+        <v>2995042.21413</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2983289.74154</v>
+        <v>3012984.98603</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3987444.76862</v>
+        <v>3967554.05441</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>4375334.25268</v>
+        <v>4425192.051299999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>5537999.20572</v>
+        <v>5714975.002180001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4417743.88024</v>
+        <v>4488528.68034</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>7917006.842339999</v>
+        <v>7911847.65526</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>10731715.52031</v>
+        <v>10611774.90975</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>15542670.59843</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>15442768.12104</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>5019302.73</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>10771.9379</v>
+        <v>5648.60073</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>35074.43221</v>
+        <v>35007.3543</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>3335.86197</v>
+        <v>342.31399</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>23945.9495</v>
+        <v>21356.62365</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>295.52904</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>3760.55098</v>
+        <v>0</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>8063.15512</v>
+        <v>9.328569999999999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>3006.07881</v>
+        <v>2959.78038</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>11423.82891</v>
+        <v>10429.86563</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>123948.08311</v>
+        <v>123627.63351</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>189949.66592</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>182274.15355</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1676.219</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>149149.50999</v>
+        <v>166154.14998</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>165734.94134</v>
+        <v>164322.36206</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>202243.11681</v>
+        <v>193725.02079</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>203921.01345</v>
+        <v>208836.84894</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>246646.90145</v>
+        <v>245128.12214</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>331280.74506</v>
+        <v>354835.71193</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>76544.45488999999</v>
+        <v>71913.77406</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>236128.94156</v>
+        <v>258036.95223</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>244005.45217</v>
+        <v>252783.05792</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>982998.01144</v>
+        <v>982005.42272</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>46099.79393000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>48246.79596</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>723607.243</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1831220.02858</v>
+        <v>1826843.44874</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1993129.22111</v>
+        <v>2018818.63293</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2795879.31383</v>
+        <v>2800842.93673</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2748538.43643</v>
+        <v>2775907.17128</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3732873.2574</v>
+        <v>3718643.82896</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>4035420.31358</v>
+        <v>4065497.90365</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>5451348.960629999</v>
+        <v>5637694.272129999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>4166493.25482</v>
+        <v>4217664.50233</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>7643546.1441</v>
+        <v>7631517.9078</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>9607449.666289998</v>
+        <v>9488823.405669998</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>15272537.31643</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>15178747.57862</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>4266930.678</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>874.4941899999999</v>
+        <v>206.64983</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>751.77027</v>
+        <v>163.46506</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>131.94262</v>
@@ -1469,109 +1440,124 @@
         <v>6884.34216</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>7629.080730000001</v>
+        <v>3486.57427</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>4872.643059999999</v>
+        <v>4858.435719999999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>2042.63508</v>
+        <v>5357.62742</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>12115.60505</v>
+        <v>9867.445399999999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>18031.41716</v>
+        <v>17116.82391</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>17319.75947</v>
+        <v>17318.44785</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>34083.82215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>33499.59291</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>27088.59</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>234284.01174</v>
+        <v>233393.10363</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>207599.67446</v>
+        <v>216358.58586</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>313254.01365</v>
+        <v>330200.06662</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>293518.74678</v>
+        <v>298000.03474</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>318450.41802</v>
+        <v>334758.20309</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>339855.99518</v>
+        <v>349224.36146</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>450886.57476</v>
+        <v>473659.61372</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>406958.38579</v>
+        <v>424466.74229</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>601870.21668</v>
+        <v>644824.77602</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>828170.0844299999</v>
+        <v>773590.3100400001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1135787.8546</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1127107.19064</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>318966.138</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>184957.36382</v>
+        <v>169959.81678</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>180623.5773</v>
+        <v>173389.95593</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>261488.62204</v>
+        <v>251947.63776</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>264802.22495</v>
+        <v>240189.40965</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>273843.63824</v>
+        <v>260481.191</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>296170.80918</v>
+        <v>276949.14856</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>426052.43227</v>
+        <v>414416.88429</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>378300.33498</v>
+        <v>419782.71647</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>526483.92444</v>
+        <v>586411.94332</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>731788.0727</v>
+        <v>669809.2774100001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>952477.78178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>883797.09566</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>554112</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1589,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>31.30947</v>
+        <v>0</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>267.2884</v>
@@ -1604,235 +1590,265 @@
         <v>0</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>6427.66638</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3458.49722</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>950.3200000000001</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>41793.35403</v>
+        <v>41700.81983</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>44433.90012000001</v>
+        <v>47857.75466000001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>90029.96919</v>
+        <v>89489.96231999999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>91043.45319</v>
+        <v>84532.09092</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>80999.53825999999</v>
+        <v>80158.06929</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>87080.25195000001</v>
+        <v>80741.07195</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>134695.20882</v>
+        <v>135236.34921</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>101238.71195</v>
+        <v>143619.04628</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>177773.88147</v>
+        <v>226165.51707</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>251734.81776</v>
+        <v>246383.97472</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>353445.1326</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>344515.87092</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>160347.911</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>143164.00979</v>
+        <v>128258.99695</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>136046.62804</v>
+        <v>125389.15213</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>171186.35201</v>
+        <v>162185.3746</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>173757.43136</v>
+        <v>155655.97833</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>192844.09998</v>
+        <v>180323.12171</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>209059.24776</v>
+        <v>196208.07661</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>291089.93505</v>
+        <v>278913.24668</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>277061.62303</v>
+        <v>276163.67019</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>348121.0874500001</v>
+        <v>359657.47073</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>480053.25494</v>
+        <v>423425.30269</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>592604.9828</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>535822.72752</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>392813.769</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>49326.64792</v>
+        <v>63433.28685</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>26976.09716</v>
+        <v>42968.62993</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>51765.39161</v>
+        <v>78252.42886</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>28716.52183</v>
+        <v>57810.62509</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>44606.77978</v>
+        <v>74277.01209</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>43685.186</v>
+        <v>72275.21290000001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>24834.14249</v>
+        <v>59242.72942999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>28658.05081</v>
+        <v>4684.025820000001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>75386.29224000001</v>
+        <v>58412.83270000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>96382.01173</v>
+        <v>103781.03263</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>183310.07282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>243310.09498</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-235145.862</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>154375.04609</v>
+        <v>101784.72245</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>130400.21614</v>
+        <v>111315.53225</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>184554.49282</v>
+        <v>144430.43878</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>110082.89463</v>
+        <v>98366.76367999999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>196701.72373</v>
+        <v>178481.32397</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>175172.11426</v>
+        <v>159463.8809</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>352823.51956</v>
+        <v>486888.1664099999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>275976.74641</v>
+        <v>235618.82916</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>407703.86862</v>
+        <v>359515.69746</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1269164.1652</v>
+        <v>1111117.00365</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>881474.94323</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>776798.74676</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1155983.432</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>4909.59433</v>
+        <v>2213.42141</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>3227.58658</v>
+        <v>472.0549800000001</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>4120.11469</v>
+        <v>547.73958</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>4953.448969999999</v>
+        <v>1257.59934</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>2226.18043</v>
+        <v>6266.61517</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>4554.26387</v>
+        <v>10.06598</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2851.65558</v>
+        <v>9.23466</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>5443.70546</v>
+        <v>2438.03722</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>7361.632689999999</v>
+        <v>0</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>18201.80824</v>
+        <v>8190.40275</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>28361.9556</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>5214.47479</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>563.768</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>2525.00018</v>
+        <v>48.98065</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>284.09089</v>
+        <v>69.502</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>48.3158</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>625.5120900000001</v>
+        <v>176.79459</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>1498.20469</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>597.19222</v>
+        <v>102.19222</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>504.02418</v>
+        <v>78.32418</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>1560.24738</v>
+        <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>0</v>
@@ -1840,206 +1856,236 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>12181.32542</v>
+        <v>11782.20875</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>12415.74831</v>
+        <v>8080.202859999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>9839.14789</v>
+        <v>8661.69375</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>10762.70002</v>
+        <v>10836.16866</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>11739.05147</v>
+        <v>5916.684099999999</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>15117.92387</v>
+        <v>12659.27267</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>23971.86498</v>
+        <v>15287.91677</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>22819.9737</v>
+        <v>13083.52838</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>26405.61491</v>
+        <v>19062.17097</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>59993.81095000001</v>
+        <v>30487.21035</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>77146.63768000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>54990.14867</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>37083.063</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>6632.197440000001</v>
+        <v>7149.180270000001</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>8890.28168</v>
+        <v>8842.374019999999</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>9913.29963</v>
+        <v>9884.902990000001</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>8272.96364</v>
+        <v>8150.57119</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>11589.2127</v>
+        <v>11393.82656</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>14325.84532</v>
+        <v>14388.67794</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>15217.93415</v>
+        <v>14566.20649</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>13729.10043</v>
+        <v>12911.98534</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>19323.85399</v>
+        <v>19258.23088</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>24599.70257</v>
+        <v>23228.90971</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>22660.29385</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>21039.89653</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>17293.646</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>721.73311</v>
+        <v>60.926</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>163.13065</v>
+        <v>128.57941</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1115.8024</v>
+        <v>162.00461</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>2714.1817</v>
+        <v>183.34614</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>2653.76866</v>
+        <v>205.43354</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>237.16487</v>
+        <v>295.72983</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>168.59189</v>
+        <v>107.54984</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>567.0382900000001</v>
+        <v>303.77348</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1345.69399</v>
+        <v>671.8591300000001</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>2740.22007</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>5541.83488</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>2944.4439</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1688.291</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>4030.807670000001</v>
+        <v>1202.93196</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>939.98037</v>
+        <v>121.56663</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>765.27346</v>
+        <v>340.55648</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>2095.54115</v>
+        <v>844.70651</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1571.50686</v>
+        <v>376.44643</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>14699.35519</v>
+        <v>5778.909709999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2007.1055</v>
+        <v>29918.3878</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2532.01693</v>
+        <v>1528.70305</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>13377.85666</v>
+        <v>6356.49491</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>37834.33982</v>
+        <v>20681.15964</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>8989.48381</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>7230.44047</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>11627.402</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>114704.80083</v>
+        <v>73988.36881</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>98127.47594</v>
+        <v>86465.55213000001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>136290.99663</v>
+        <v>121598.16701</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>68331.76067999999</v>
+        <v>65337.37235000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>149059.60085</v>
+        <v>147456.37825</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>105273.28501</v>
+        <v>116779.63193</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>282286.18969</v>
+        <v>411109.33147</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>208137.79849</v>
+        <v>189702.11819</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>293796.9674</v>
+        <v>278926.10286</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1087503.63743</v>
+        <v>991653.0883099999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>687929.98248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>642035.4631700001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1046646.232</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>65.55793</v>
@@ -2060,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>1603.86325</v>
+        <v>0</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>127.20889</v>
@@ -2069,28 +2115,33 @@
         <v>0</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>33.17563</v>
+        <v>0</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
       <c r="E34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>0</v>
@@ -2102,7 +2153,7 @@
         <v>446.26734</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>0</v>
+        <v>4476.72999</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>0.9</v>
@@ -2113,254 +2164,289 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>8604.02918</v>
+        <v>5273.14667</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>6351.92167</v>
+        <v>7135.70022</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>22457.97495</v>
+        <v>3183.49119</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>12326.42638</v>
+        <v>11580.2049</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>16364.19807</v>
+        <v>5367.73523</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>20359.22708</v>
+        <v>9441.54379</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>23766.023</v>
+        <v>15364.94786</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>22619.90422</v>
+        <v>11046.74462</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>44531.1016</v>
+        <v>35239.93870999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>38257.47049</v>
+        <v>34136.01282</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>50844.75493</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>43343.87923</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>41081.03</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>129695.76264</v>
+        <v>87121.57467999999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>100436.92225</v>
+        <v>84779.89971000001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>146113.12876</v>
+        <v>132024.15634</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>73076.51700000001</v>
+        <v>75248.56456999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>165741.0848</v>
+        <v>184313.37613</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>125942.97348</v>
+        <v>128496.1167</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>283523.30502</v>
+        <v>416530.10864</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>235072.59685</v>
+        <v>213638.6465</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>313473.58152</v>
+        <v>263977.3974</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1200665.78873</v>
+        <v>1023647.52742</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>706128.1632999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>647271.88367</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1036001.722</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>2296.90933</v>
+        <v>1696.18331</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1879.47069</v>
+        <v>1853.62386</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>6368.805810000001</v>
+        <v>6306.05903</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>4009.18553</v>
+        <v>4054.55231</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>5708.49536</v>
+        <v>5679.78665</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>2246.82364</v>
+        <v>2471.70194</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2300.71365</v>
+        <v>2247.41766</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1420.47013</v>
+        <v>1411.44616</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>7469.96486</v>
+        <v>7467.76993</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>19258.1488</v>
+        <v>18896.10235</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>23832.0467</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>23694.76316</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>8982.782999999999</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1901.46833</v>
+        <v>1249.94607</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1929.32664</v>
+        <v>1900.68492</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1173.95962</v>
+        <v>1286.44403</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>2310.20754</v>
+        <v>2291.08919</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1766.38314</v>
+        <v>1740.86377</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>3113.76525</v>
+        <v>4009.23126</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>5610.80144</v>
+        <v>3283.52831</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>3936.85245</v>
+        <v>1830.39044</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>7039.30002</v>
+        <v>5529.63975</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>4658.42018</v>
+        <v>4209.815030000001</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>8923.394849999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>7448.735</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>694.5880999999999</v>
+        <v>141.99029</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>66.47949</v>
+        <v>49.18189</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>581.1583900000001</v>
+        <v>135.74511</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>1094.44334</v>
+        <v>110.54011</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>2616.33458</v>
+        <v>0.3409700000000001</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>372.1183</v>
+        <v>5085.22345</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>1142.19972</v>
+        <v>736.43432</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>285.88652</v>
+        <v>0</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>924.52422</v>
+        <v>22.23621</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>18039.79592</v>
+        <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>234.86935</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>204.53433</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>50541.449</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>121796.31884</v>
+        <v>83364.34335</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>90627.06478</v>
+        <v>79963.51114999999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>136104.94333</v>
+        <v>122802.90333</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>63016.01981000001</v>
+        <v>64162.94191</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>152237.04617</v>
+        <v>173205.86352</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>113993.81102</v>
+        <v>112827.29875</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>270403.42984</v>
+        <v>407255.75062</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>223467.89093</v>
+        <v>207050.28195</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>294297.91943</v>
+        <v>248449.08336</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1151115.11425</v>
+        <v>994706.48597</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>655341.0870299999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>599329.12745</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>947686.235</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>12.97569</v>
+        <v>11.38498</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>0</v>
+        <v>10.64138</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>0</v>
@@ -2378,22 +2464,27 @@
         <v>0</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>33.17563</v>
+        <v>0</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>0.03849</v>
+        <v>0</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>0.0186</v>
+        <v>0</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>0</v>
@@ -2425,389 +2516,439 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2993.48375</v>
+        <v>657.72668</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>5934.580650000001</v>
+        <v>1012.89789</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1884.26161</v>
+        <v>1482.36346</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2646.66078</v>
+        <v>4629.441049999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>3412.82555</v>
+        <v>3686.52122</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>6216.367679999999</v>
+        <v>4102.57371</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>4066.16037</v>
+        <v>3006.97773</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>5961.49682</v>
+        <v>3346.52795</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3699.60091</v>
+        <v>2499.5717</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>7594.27109</v>
+        <v>5835.12407</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>17796.76537</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>15120.06388</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>21342.52</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>27181.93395</v>
+        <v>31486.05988</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>28938.80585</v>
+        <v>28665.74678</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>32230.34002</v>
+        <v>57812.21108</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>36690.57248</v>
+        <v>35503.52797</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>43489.60442</v>
+        <v>44891.45955</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>57832.39149</v>
+        <v>71449.23647</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>72936.70311999999</v>
+        <v>100599.99689</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>86670.73224</v>
+        <v>75772.91059999999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>112063.34996</v>
+        <v>143278.37032</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>166042.1907</v>
+        <v>124902.15908</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>218596.1378</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>200318.76042</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>155162.435</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>26286.60814</v>
+        <v>29893.60755</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>28435.81397</v>
+        <v>25716.47393</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>30452.02773</v>
+        <v>33708.06747</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>34854.51949</v>
+        <v>32728.1931</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>39858.34471</v>
+        <v>33616.66886</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>53540.80015</v>
+        <v>49734.40572</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>68448.73725000001</v>
+        <v>67396.70182</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>81913.18633</v>
+        <v>68259.04954000001</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>102704.7729</v>
+        <v>97021.79076999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>160949.62151</v>
+        <v>119920.11404</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>208102.60802</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>190922.01386</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>150764.549</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>895.32581</v>
+        <v>1592.45233</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>502.99188</v>
+        <v>2949.27285</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1778.31229</v>
+        <v>24104.14361</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1836.05299</v>
+        <v>2775.33487</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>3631.25971</v>
+        <v>11274.79069</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>4291.59134</v>
+        <v>21714.83075</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>4487.96587</v>
+        <v>33203.29507</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>4757.54591</v>
+        <v>7513.861059999999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>9358.57706</v>
+        <v>46256.57954999999</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>5092.56919</v>
+        <v>4982.04504</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>10493.52978</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>9396.746560000001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>4397.886</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>46823.99742</v>
+        <v>46610.37474</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>28000.5852</v>
+        <v>40838.51569</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>57976.41565</v>
+        <v>32846.50022</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>29032.32698</v>
+        <v>45425.29623</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>32077.81429</v>
+        <v>23553.50038</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>35081.93529</v>
+        <v>31793.74063</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>21197.65391</v>
+        <v>29000.79031</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-17108.53187</v>
+        <v>-49108.70211999999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>57553.22938</v>
+        <v>10672.76244000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-1161.8025</v>
+        <v>66348.34977999999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>140060.71495</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>172518.19765</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-270326.587</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>15621.82345</v>
+        <v>7022.84323</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>17836.50455</v>
+        <v>9760.358389999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>26461.83556</v>
+        <v>10925.17355</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>21590.56611</v>
+        <v>12376.45968</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>27299.71559</v>
+        <v>16099.24886</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>42994.01656999999</v>
+        <v>13665.95197</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>62029.38451</v>
+        <v>44127.46094999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>58023.73722</v>
+        <v>33141.97821</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>49609.77168</v>
+        <v>36481.35866000001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>99818.93865000001</v>
+        <v>76494.14358</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>72066.30573000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>60656.38421</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>60700.535</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>174.31996</v>
+        <v>174.26396</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>263.32076</v>
+        <v>258.6259</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>182.01465</v>
+        <v>158.91361</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>206.31233</v>
+        <v>284.17535</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>90.49013000000001</v>
+        <v>52.38201</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>578.06574</v>
+        <v>576.38386</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>517.5753500000001</v>
+        <v>233.73395</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1287.02337</v>
+        <v>915.34482</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1208.52567</v>
+        <v>1128.51857</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>4313.64945</v>
+        <v>4311.35554</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>3144.01503</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>2656.16979</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2049.041</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>15447.50349</v>
+        <v>6848.57927</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>17573.18379</v>
+        <v>9501.73249</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>26279.82091</v>
+        <v>10766.25994</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>21384.25378</v>
+        <v>12092.28433</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>27209.22546</v>
+        <v>16046.86685</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>42415.95083000001</v>
+        <v>13089.56811</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>61511.80916</v>
+        <v>43893.727</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>56736.71385</v>
+        <v>32226.63339</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>48401.24601</v>
+        <v>35352.84009000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>95505.2892</v>
+        <v>72182.78803999998</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>68922.2907</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>58000.21442</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>58651.494</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>16703.256</v>
+        <v>13041.81844</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>10638.32763</v>
+        <v>11974.53196</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>37331.66633</v>
+        <v>51888.83331</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>17543.06448</v>
+        <v>19131.52897</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>41573.5821</v>
+        <v>50797.28046</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>28319.79852</v>
+        <v>20227.35094</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>26367.53211</v>
+        <v>20469.5591</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>61390.72253</v>
+        <v>49726.45678</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>39580.95206</v>
+        <v>28117.84251</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>161504.57453</v>
+        <v>67773.66942000001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>55688.80220000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>45902.7547</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>54198.843</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>0.18054</v>
+        <v>0</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>0.00116</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>11.30992</v>
+        <v>0</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>325.88682</v>
+        <v>0</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>310.42204</v>
+        <v>0</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>188.41844</v>
+        <v>0</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>188.41844</v>
+        <v>0</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>5227.1937</v>
+        <v>5038.775259999999</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1869.28571</v>
+        <v>0.7756000000000001</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>0</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>284.33162</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>8537.418</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>2778.80248</v>
+        <v>3469.59202</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1156.42385</v>
+        <v>1158.13687</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1013.10963</v>
+        <v>972.55599</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1479.42773</v>
+        <v>769.48402</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>688.00788</v>
+        <v>731.06799</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1356.23978</v>
+        <v>1272.14652</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4276.65972</v>
+        <v>2644.77895</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>961.21714</v>
+        <v>1994.22133</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>3038.77072</v>
+        <v>3161.38328</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>4658.439859999999</v>
+        <v>4519.609199999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>7555.83051</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>6100.98816</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2468.779</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>13924.27298</v>
+        <v>9572.226419999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>9481.902620000001</v>
+        <v>10816.39393</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>36307.24678</v>
+        <v>50916.27732</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>15737.74993</v>
+        <v>18362.04495</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>40575.15218</v>
+        <v>50066.21247</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>26775.1403</v>
+        <v>18955.20442</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>21902.45395</v>
+        <v>17824.78015</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>55202.31169</v>
+        <v>42693.46019</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>34672.89563</v>
+        <v>24955.68363</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>156846.13467</v>
+        <v>63254.06022</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>47848.64007</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>39517.43492</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>43192.646</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>45742.56487</v>
+        <v>40591.39953</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>35198.76212</v>
+        <v>38624.34211999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>47106.58488</v>
+        <v>-8117.15954</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>33079.82861</v>
+        <v>38670.22694</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>17803.94778</v>
+        <v>-11144.53122</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>49756.15334</v>
+        <v>25232.34166</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>56859.50631</v>
+        <v>52658.69216</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-20475.51718</v>
+        <v>-65693.18069000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>67582.049</v>
+        <v>19036.27858999999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-62847.43837999999</v>
+        <v>75068.82394</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>156438.21848</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>187271.82716</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-263824.895</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>11421.00869</v>
+        <v>9070.786980000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>9704.768769999999</v>
+        <v>8532.668669999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>17782.42477</v>
+        <v>13285.08772</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>13220.41068</v>
+        <v>13218.33184</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>18792.01602</v>
+        <v>16978.72909</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>16736.2245</v>
+        <v>12590.60099</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>25742.71622</v>
+        <v>19411.33755</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>18940.28389</v>
+        <v>15108.4349</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>28529.36314</v>
+        <v>28696.76534</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>41525.73327</v>
+        <v>34256.32038</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>61528.38129999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>57376.05107</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>17287.404</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>34321.55618</v>
+        <v>31520.61255</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>25493.99335</v>
+        <v>30091.67345</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>29324.16011</v>
+        <v>-21402.24726</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>19859.41793</v>
+        <v>25451.8951</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-988.0682399999999</v>
+        <v>-28123.26031</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>33019.92884</v>
+        <v>12641.74067</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>31116.79008999999</v>
+        <v>33247.35461</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-39415.80107</v>
+        <v>-80801.61559</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>39052.68586</v>
+        <v>-9660.48675</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-104373.17165</v>
+        <v>40812.50356</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>94909.83718</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>129895.77609</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-281112.299</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>252</v>
+        <v>130</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>263</v>
+        <v>146</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>274</v>
+        <v>139</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>336</v>
+        <v>196</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>156</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>